--- a/KETEK/dV_dT.xlsx
+++ b/KETEK/dV_dT.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="runs" sheetId="1" r:id="rId1"/>
+    <sheet name="263" sheetId="2" r:id="rId2"/>
+    <sheet name="270" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>gate [ns]</t>
   </si>
@@ -65,6 +66,48 @@
   <si>
     <t>h2</t>
   </si>
+  <si>
+    <t>j2</t>
+  </si>
+  <si>
+    <t>k2</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>e3</t>
+  </si>
+  <si>
+    <t>f3</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>ADC avg</t>
+  </si>
+  <si>
+    <t>V_BD</t>
+  </si>
 </sst>
 </file>
 
@@ -99,8 +142,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -113,6 +157,1573 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'263'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'263'!$F$1:$W$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'263'!$F$3:$W$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>922.95030000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>938.18099999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>935.86000000000013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>942.54999999999973</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>949.4699999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>959.95000000000073</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>957.00999999999931</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>964.41000000000076</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>965.43999999999869</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>967.36000000000058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>965.88000000000102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>972.89999999999964</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>960.89999999999964</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>983.60000000000036</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>965.19999999999891</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>975.20000000000073</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>990.39999999999964</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>969.80000000000109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'263'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'263'!$F$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'263'!$F$6:$Y$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>853.92529999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>894.80399999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>886.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>886.2199999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>899.59000000000015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>898.57999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>900.72000000000025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>904.31999999999971</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>911.59000000000015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>910.25000000000091</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>911.30999999999949</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>909.19999999999891</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>914.30000000000109</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>929.39999999999964</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>907.60000000000036</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>919.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>938.39999999999964</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>926.90000000000146</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>936.29999999999927</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'263'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'263'!$F$1:$AA$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'263'!$F$9:$AA$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>803.84479999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>832.46299999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>833.33000000000015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>834.69999999999982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>840.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>835.63999999999987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>844.92000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>849.06999999999971</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>845.29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>845.80000000000018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>851.63999999999942</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>858.97000000000116</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>854.39999999999964</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>863.29999999999927</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>869.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>858.70000000000073</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>865.60000000000036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>869.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>866.19999999999891</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>876.79999999999927</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>870.30000000000291</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>861</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'263'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'263'!$F$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'263'!$F$12:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>695.21239999999989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>723.31600000000014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>734.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>731.84999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>737.84000000000015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>739.22999999999956</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>739.69000000000051</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>741.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>738.13999999999942</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>748.63000000000011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>743.40000000000055</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>736.54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>743.86000000000058</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>749.0099999999984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'263'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23.8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'263'!$F$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'263'!$F$15:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>596.42829999999992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>619.46600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>620.81999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>624.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>630.24000000000024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>628.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>631.35999999999967</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>632.65000000000055</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>631.57999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>626.72999999999956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>630.8100000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>622.32999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="78480128"/>
+        <c:axId val="74554368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="78480128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74554368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="74554368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1050"/>
+          <c:min val="400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78480128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.35354746761207967"/>
+                  <c:y val="1.8705565735935097E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'263'!$A$34:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'263'!$B$34:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>960.39229444444447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>907.59246500000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>851.45035454545462</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>735.95917142857138</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>624.67369166666674</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>526.55435384615384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>420.65173999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>312.69994899999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="118416128"/>
+        <c:axId val="118227712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="118416128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="118227712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="118227712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="118416128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'270'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'270'!$F$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'270'!$F$3:$U$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>697.2505000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>714.31999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>711.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>709.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>717.9699999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>719.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>724.93000000000029</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>725.89999999999964</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>731.23000000000047</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>733.02999999999975</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>747.27000000000044</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>736.32999999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>737.43000000000029</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>742.78999999999905</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>733.30000000000109</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>738.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'270'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23.6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'270'!$F$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'270'!$F$6:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>459.20909999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>513.25700000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.60199999999986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>506.91000000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>511.86999999999989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>502.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>504.36000000000013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>513.42000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>505.89999999999964</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>510.93000000000029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>506.69999999999982</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>513.32000000000062</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>513.35999999999967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="78607488"/>
+        <c:axId val="90561920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="78607488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90561920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="90561920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78607488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.39363954505686788"/>
+                  <c:y val="-4.7462817147856518E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'270'!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'270'!$B$15:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>726.28190625000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>505.73754615384615</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>611.7433166666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="99221888"/>
+        <c:axId val="99007104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="99221888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99007104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="99007104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99221888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,10 +2013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,6 +2183,128 @@
         <v>24.2</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>262.89999999999998</v>
+      </c>
+      <c r="C11">
+        <v>263.2</v>
+      </c>
+      <c r="D11">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>262.89999999999998</v>
+      </c>
+      <c r="C12">
+        <v>263.2</v>
+      </c>
+      <c r="D12">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>270</v>
+      </c>
+      <c r="C14">
+        <v>270.2</v>
+      </c>
+      <c r="D14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>270</v>
+      </c>
+      <c r="D15">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>270</v>
+      </c>
+      <c r="D16">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>269.89999999999998</v>
+      </c>
+      <c r="C17">
+        <v>270.2</v>
+      </c>
+      <c r="D17">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>270</v>
+      </c>
+      <c r="D18">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>270</v>
+      </c>
+      <c r="D19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>270</v>
+      </c>
+      <c r="D20">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>270</v>
+      </c>
+      <c r="D21">
+        <v>24.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -579,21 +2312,1762 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <v>3</v>
+      </c>
+      <c r="J1">
+        <v>4</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>6</v>
+      </c>
+      <c r="M1">
+        <v>7</v>
+      </c>
+      <c r="N1">
+        <v>8</v>
+      </c>
+      <c r="O1">
+        <v>9</v>
+      </c>
+      <c r="P1">
+        <v>10</v>
+      </c>
+      <c r="Q1">
+        <v>11</v>
+      </c>
+      <c r="R1">
+        <v>12</v>
+      </c>
+      <c r="S1">
+        <v>13</v>
+      </c>
+      <c r="T1">
+        <v>14</v>
+      </c>
+      <c r="U1">
+        <v>15</v>
+      </c>
+      <c r="V1">
+        <v>16</v>
+      </c>
+      <c r="W1">
+        <v>17</v>
+      </c>
+      <c r="X1">
+        <v>18</v>
+      </c>
+      <c r="Y1">
+        <v>19</v>
+      </c>
+      <c r="Z1">
+        <v>20</v>
+      </c>
+      <c r="AA1">
+        <v>21</v>
+      </c>
+      <c r="AB1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>263</v>
+      </c>
+      <c r="B2">
+        <v>24.4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <v>-74.3613</v>
+      </c>
+      <c r="G2">
+        <v>848.58900000000006</v>
+      </c>
+      <c r="H2">
+        <v>1786.77</v>
+      </c>
+      <c r="I2">
+        <v>2722.63</v>
+      </c>
+      <c r="J2">
+        <v>3665.18</v>
+      </c>
+      <c r="K2">
+        <v>4614.6499999999996</v>
+      </c>
+      <c r="L2">
+        <v>5574.6</v>
+      </c>
+      <c r="M2">
+        <v>6531.61</v>
+      </c>
+      <c r="N2">
+        <v>7496.02</v>
+      </c>
+      <c r="O2">
+        <v>8461.4599999999991</v>
+      </c>
+      <c r="P2">
+        <v>9428.82</v>
+      </c>
+      <c r="Q2">
+        <v>10394.700000000001</v>
+      </c>
+      <c r="R2">
+        <v>11367.6</v>
+      </c>
+      <c r="S2">
+        <v>12328.5</v>
+      </c>
+      <c r="T2">
+        <v>13312.1</v>
+      </c>
+      <c r="U2">
+        <v>14277.3</v>
+      </c>
+      <c r="V2">
+        <v>15252.5</v>
+      </c>
+      <c r="W2">
+        <v>16242.9</v>
+      </c>
+      <c r="X2">
+        <v>17212.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f>AVERAGE(F3:AD3)</f>
+        <v>960.39229444444447</v>
+      </c>
+      <c r="F3">
+        <f>G2-F2</f>
+        <v>922.95030000000008</v>
+      </c>
+      <c r="G3">
+        <f>H2-G2</f>
+        <v>938.18099999999993</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:T3" si="0">I2-H2</f>
+        <v>935.86000000000013</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>942.54999999999973</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>949.4699999999998</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>959.95000000000073</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>957.00999999999931</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>964.41000000000076</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>965.43999999999869</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>967.36000000000058</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>965.88000000000102</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>972.89999999999964</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>960.89999999999964</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>983.60000000000036</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>965.19999999999891</v>
+      </c>
+      <c r="U3">
+        <f>V2-U2</f>
+        <v>975.20000000000073</v>
+      </c>
+      <c r="V3">
+        <f>W2-V2</f>
+        <v>990.39999999999964</v>
+      </c>
+      <c r="W3">
+        <f>X2-W2</f>
+        <v>969.80000000000109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>263</v>
+      </c>
+      <c r="B5">
+        <v>24.3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>-58.649299999999997</v>
+      </c>
+      <c r="G5">
+        <v>795.27599999999995</v>
+      </c>
+      <c r="H5">
+        <v>1690.08</v>
+      </c>
+      <c r="I5">
+        <v>2577.02</v>
+      </c>
+      <c r="J5">
+        <v>3463.24</v>
+      </c>
+      <c r="K5">
+        <v>4362.83</v>
+      </c>
+      <c r="L5">
+        <v>5261.41</v>
+      </c>
+      <c r="M5">
+        <v>6162.13</v>
+      </c>
+      <c r="N5">
+        <v>7066.45</v>
+      </c>
+      <c r="O5">
+        <v>7978.04</v>
+      </c>
+      <c r="P5">
+        <v>8888.2900000000009</v>
+      </c>
+      <c r="Q5">
+        <v>9799.6</v>
+      </c>
+      <c r="R5">
+        <v>10708.8</v>
+      </c>
+      <c r="S5">
+        <v>11623.1</v>
+      </c>
+      <c r="T5">
+        <v>12552.5</v>
+      </c>
+      <c r="U5">
+        <v>13460.1</v>
+      </c>
+      <c r="V5">
+        <v>14379.6</v>
+      </c>
+      <c r="W5">
+        <v>15318</v>
+      </c>
+      <c r="X5">
+        <v>16230</v>
+      </c>
+      <c r="Y5">
+        <v>17156.900000000001</v>
+      </c>
+      <c r="Z5">
+        <v>18093.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f>AVERAGE(F6:AD6)</f>
+        <v>907.59246500000006</v>
+      </c>
+      <c r="F6">
+        <f>G5-F5</f>
+        <v>853.92529999999999</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:R6" si="1">H5-G5</f>
+        <v>894.80399999999997</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>886.94</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>886.2199999999998</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>899.59000000000015</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>898.57999999999993</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>900.72000000000025</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>904.31999999999971</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>911.59000000000015</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>910.25000000000091</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>911.30999999999949</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>909.19999999999891</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>914.30000000000109</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6" si="2">T5-S5</f>
+        <v>929.39999999999964</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ref="T6" si="3">U5-T5</f>
+        <v>907.60000000000036</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ref="U6" si="4">V5-U5</f>
+        <v>919.5</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ref="V6" si="5">W5-V5</f>
+        <v>938.39999999999964</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W6" si="6">X5-W5</f>
+        <v>912</v>
+      </c>
+      <c r="X6">
+        <f t="shared" ref="X6" si="7">Y5-X5</f>
+        <v>926.90000000000146</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" ref="Y6" si="8">Z5-Y5</f>
+        <v>936.29999999999927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>263</v>
+      </c>
+      <c r="B8">
+        <v>24.2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>-51.007800000000003</v>
+      </c>
+      <c r="G8">
+        <v>752.83699999999999</v>
+      </c>
+      <c r="H8">
+        <v>1585.3</v>
+      </c>
+      <c r="I8">
+        <v>2418.63</v>
+      </c>
+      <c r="J8">
+        <v>3253.33</v>
+      </c>
+      <c r="K8">
+        <v>4094.27</v>
+      </c>
+      <c r="L8">
+        <v>4929.91</v>
+      </c>
+      <c r="M8">
+        <v>5774.83</v>
+      </c>
+      <c r="N8">
+        <v>6623.9</v>
+      </c>
+      <c r="O8">
+        <v>7469.19</v>
+      </c>
+      <c r="P8">
+        <v>8314.99</v>
+      </c>
+      <c r="Q8">
+        <v>9166.6299999999992</v>
+      </c>
+      <c r="R8">
+        <v>10025.6</v>
+      </c>
+      <c r="S8">
+        <v>10880</v>
+      </c>
+      <c r="T8">
+        <v>11743.3</v>
+      </c>
+      <c r="U8">
+        <v>12612.8</v>
+      </c>
+      <c r="V8">
+        <v>13471.5</v>
+      </c>
+      <c r="W8">
+        <v>14337.1</v>
+      </c>
+      <c r="X8">
+        <v>15206.6</v>
+      </c>
+      <c r="Y8">
+        <v>16072.8</v>
+      </c>
+      <c r="Z8">
+        <v>16949.599999999999</v>
+      </c>
+      <c r="AA8">
+        <v>17819.900000000001</v>
+      </c>
+      <c r="AB8">
+        <v>18680.900000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f>AVERAGE(F9:AD9)</f>
+        <v>851.45035454545462</v>
+      </c>
+      <c r="F9">
+        <f>G8-F8</f>
+        <v>803.84479999999996</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:O9" si="9">H8-G8</f>
+        <v>832.46299999999997</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="9"/>
+        <v>833.33000000000015</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="9"/>
+        <v>834.69999999999982</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="9"/>
+        <v>840.94</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="9"/>
+        <v>835.63999999999987</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="9"/>
+        <v>844.92000000000007</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="9"/>
+        <v>849.06999999999971</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="9"/>
+        <v>845.29</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="9"/>
+        <v>845.80000000000018</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ref="P9" si="10">Q8-P8</f>
+        <v>851.63999999999942</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" ref="Q9" si="11">R8-Q8</f>
+        <v>858.97000000000116</v>
+      </c>
+      <c r="R9">
+        <f t="shared" ref="R9" si="12">S8-R8</f>
+        <v>854.39999999999964</v>
+      </c>
+      <c r="S9">
+        <f t="shared" ref="S9" si="13">T8-S8</f>
+        <v>863.29999999999927</v>
+      </c>
+      <c r="T9">
+        <f t="shared" ref="T9" si="14">U8-T8</f>
+        <v>869.5</v>
+      </c>
+      <c r="U9">
+        <f t="shared" ref="U9" si="15">V8-U8</f>
+        <v>858.70000000000073</v>
+      </c>
+      <c r="V9">
+        <f t="shared" ref="V9" si="16">W8-V8</f>
+        <v>865.60000000000036</v>
+      </c>
+      <c r="W9">
+        <f t="shared" ref="W9:X9" si="17">X8-W8</f>
+        <v>869.5</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="17"/>
+        <v>866.19999999999891</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" ref="Y9" si="18">Z8-Y8</f>
+        <v>876.79999999999927</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" ref="Z9" si="19">AA8-Z8</f>
+        <v>870.30000000000291</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" ref="AA9" si="20">AB8-AA8</f>
+        <v>861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>263</v>
+      </c>
+      <c r="B11">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>-47.628399999999999</v>
+      </c>
+      <c r="G11">
+        <v>647.58399999999995</v>
+      </c>
+      <c r="H11">
+        <v>1370.9</v>
+      </c>
+      <c r="I11">
+        <v>2105.65</v>
+      </c>
+      <c r="J11">
+        <v>2837.5</v>
+      </c>
+      <c r="K11">
+        <v>3575.34</v>
+      </c>
+      <c r="L11">
+        <v>4314.57</v>
+      </c>
+      <c r="M11">
+        <v>5054.26</v>
+      </c>
+      <c r="N11">
+        <v>5796.22</v>
+      </c>
+      <c r="O11">
+        <v>6534.36</v>
+      </c>
+      <c r="P11">
+        <v>7282.99</v>
+      </c>
+      <c r="Q11">
+        <v>8026.39</v>
+      </c>
+      <c r="R11">
+        <v>8762.93</v>
+      </c>
+      <c r="S11">
+        <v>9506.7900000000009</v>
+      </c>
+      <c r="T11">
+        <v>10255.799999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>AVERAGE(F12:AD12)</f>
+        <v>735.95917142857138</v>
+      </c>
+      <c r="F12">
+        <f>G11-F11</f>
+        <v>695.21239999999989</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:S12" si="21">H11-G11</f>
+        <v>723.31600000000014</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="21"/>
+        <v>734.75</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="21"/>
+        <v>731.84999999999991</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="21"/>
+        <v>737.84000000000015</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="21"/>
+        <v>739.22999999999956</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="21"/>
+        <v>739.69000000000051</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="21"/>
+        <v>741.96</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="21"/>
+        <v>738.13999999999942</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="21"/>
+        <v>748.63000000000011</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="21"/>
+        <v>743.40000000000055</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="21"/>
+        <v>736.54</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="21"/>
+        <v>743.86000000000058</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="21"/>
+        <v>749.0099999999984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>263</v>
+      </c>
+      <c r="B14">
+        <v>23.8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>-44.8643</v>
+      </c>
+      <c r="G14">
+        <v>551.56399999999996</v>
+      </c>
+      <c r="H14">
+        <v>1171.03</v>
+      </c>
+      <c r="I14">
+        <v>1791.85</v>
+      </c>
+      <c r="J14">
+        <v>2416.56</v>
+      </c>
+      <c r="K14">
+        <v>3046.8</v>
+      </c>
+      <c r="L14">
+        <v>3675.76</v>
+      </c>
+      <c r="M14">
+        <v>4307.12</v>
+      </c>
+      <c r="N14">
+        <v>4939.7700000000004</v>
+      </c>
+      <c r="O14">
+        <v>5571.35</v>
+      </c>
+      <c r="P14">
+        <v>6198.08</v>
+      </c>
+      <c r="Q14">
+        <v>6828.89</v>
+      </c>
+      <c r="R14">
+        <v>7451.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>AVERAGE(F15:AD15)</f>
+        <v>624.67369166666674</v>
+      </c>
+      <c r="F15">
+        <f>G14-F14</f>
+        <v>596.42829999999992</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:Q15" si="22">H14-G14</f>
+        <v>619.46600000000001</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="22"/>
+        <v>620.81999999999994</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="22"/>
+        <v>624.71</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="22"/>
+        <v>630.24000000000024</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="22"/>
+        <v>628.96</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="22"/>
+        <v>631.35999999999967</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="22"/>
+        <v>632.65000000000055</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="22"/>
+        <v>631.57999999999993</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="22"/>
+        <v>626.72999999999956</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="22"/>
+        <v>630.8100000000004</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="22"/>
+        <v>622.32999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>263</v>
+      </c>
+      <c r="B17">
+        <v>23.6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>-14.396599999999999</v>
+      </c>
+      <c r="G17">
+        <v>492.62299999999999</v>
+      </c>
+      <c r="H17">
+        <v>1012.49</v>
+      </c>
+      <c r="I17">
+        <v>1534</v>
+      </c>
+      <c r="J17">
+        <v>2058.5100000000002</v>
+      </c>
+      <c r="K17">
+        <v>2581.62</v>
+      </c>
+      <c r="L17">
+        <v>3114.41</v>
+      </c>
+      <c r="M17">
+        <v>3644.11</v>
+      </c>
+      <c r="N17">
+        <v>4174.13</v>
+      </c>
+      <c r="O17">
+        <v>4704.17</v>
+      </c>
+      <c r="P17">
+        <v>5235.24</v>
+      </c>
+      <c r="Q17">
+        <v>5767.35</v>
+      </c>
+      <c r="R17">
+        <v>6298.68</v>
+      </c>
+      <c r="S17">
+        <v>6830.81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f>AVERAGE(F18:AD18)</f>
+        <v>526.55435384615384</v>
+      </c>
+      <c r="F18">
+        <f>G17-F17</f>
+        <v>507.01959999999997</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:R18" si="23">H17-G17</f>
+        <v>519.86699999999996</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="23"/>
+        <v>521.51</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="23"/>
+        <v>524.51000000000022</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="23"/>
+        <v>523.10999999999967</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="23"/>
+        <v>532.79</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="23"/>
+        <v>529.70000000000027</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="23"/>
+        <v>530.02</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="23"/>
+        <v>530.04</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="23"/>
+        <v>531.06999999999971</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="23"/>
+        <v>532.11000000000058</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="23"/>
+        <v>531.32999999999993</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="23"/>
+        <v>532.13000000000011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>263</v>
+      </c>
+      <c r="B20">
+        <v>23.4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>2.27738</v>
+      </c>
+      <c r="G20">
+        <v>391.98700000000002</v>
+      </c>
+      <c r="H20">
+        <v>809.40599999999995</v>
+      </c>
+      <c r="I20">
+        <v>1222.9000000000001</v>
+      </c>
+      <c r="J20">
+        <v>1641.71</v>
+      </c>
+      <c r="K20">
+        <v>2061.71</v>
+      </c>
+      <c r="L20">
+        <v>2484.92</v>
+      </c>
+      <c r="M20">
+        <v>2907.92</v>
+      </c>
+      <c r="N20">
+        <v>3338.27</v>
+      </c>
+      <c r="O20">
+        <v>3763.82</v>
+      </c>
+      <c r="P20">
+        <v>4193.0600000000004</v>
+      </c>
+      <c r="Q20">
+        <v>4616.49</v>
+      </c>
+      <c r="R20">
+        <v>5042.5600000000004</v>
+      </c>
+      <c r="S20">
+        <v>5470.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f>AVERAGE(F21:AD21)</f>
+        <v>420.65173999999996</v>
+      </c>
+      <c r="F21">
+        <f>G20-F20</f>
+        <v>389.70962000000003</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:R21" si="24">H20-G20</f>
+        <v>417.41899999999993</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="24"/>
+        <v>413.49400000000014</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="24"/>
+        <v>418.80999999999995</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="24"/>
+        <v>420</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="24"/>
+        <v>423.21000000000004</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="24"/>
+        <v>423</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="24"/>
+        <v>430.34999999999991</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="24"/>
+        <v>425.55000000000018</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="24"/>
+        <v>429.24000000000024</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="24"/>
+        <v>423.42999999999938</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="24"/>
+        <v>426.07000000000062</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="24"/>
+        <v>428.1899999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>263</v>
+      </c>
+      <c r="B23">
+        <v>23.2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>6.1405099999999999</v>
+      </c>
+      <c r="G23">
+        <v>290.50400000000002</v>
+      </c>
+      <c r="H23">
+        <v>604.827</v>
+      </c>
+      <c r="I23">
+        <v>921.39200000000005</v>
+      </c>
+      <c r="J23">
+        <v>1237.3499999999999</v>
+      </c>
+      <c r="K23">
+        <v>1555.09</v>
+      </c>
+      <c r="L23">
+        <v>1868.26</v>
+      </c>
+      <c r="M23">
+        <v>2186.3000000000002</v>
+      </c>
+      <c r="N23">
+        <v>2502.37</v>
+      </c>
+      <c r="O23">
+        <v>2821.95</v>
+      </c>
+      <c r="P23">
+        <v>3133.14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f>AVERAGE(F24:AD24)</f>
+        <v>312.69994899999995</v>
+      </c>
+      <c r="F24">
+        <f>G23-F23</f>
+        <v>284.36349000000001</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24:O24" si="25">H23-G23</f>
+        <v>314.32299999999998</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="25"/>
+        <v>316.56500000000005</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="25"/>
+        <v>315.95799999999986</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="25"/>
+        <v>317.74</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="25"/>
+        <v>313.17000000000007</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="25"/>
+        <v>318.04000000000019</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="25"/>
+        <v>316.06999999999971</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="25"/>
+        <v>319.57999999999993</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="25"/>
+        <v>311.19000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>24.4</v>
+      </c>
+      <c r="B34">
+        <f>D3</f>
+        <v>960.39229444444447</v>
+      </c>
+      <c r="D34">
+        <v>263</v>
+      </c>
+      <c r="E34" s="1">
+        <f>12217/539.95</f>
+        <v>22.626169089730528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>24.3</v>
+      </c>
+      <c r="B35">
+        <f>D6</f>
+        <v>907.59246500000006</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>24.2</v>
+      </c>
+      <c r="B36">
+        <f>D9</f>
+        <v>851.45035454545462</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>24</v>
+      </c>
+      <c r="B37">
+        <f>D12</f>
+        <v>735.95917142857138</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>23.8</v>
+      </c>
+      <c r="B38">
+        <f>D15</f>
+        <v>624.67369166666674</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>23.6</v>
+      </c>
+      <c r="B39">
+        <f>D18</f>
+        <v>526.55435384615384</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>23.4</v>
+      </c>
+      <c r="B40">
+        <f>D21</f>
+        <v>420.65173999999996</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>23.2</v>
+      </c>
+      <c r="B41">
+        <f>D24</f>
+        <v>312.69994899999995</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <v>3</v>
+      </c>
+      <c r="J1">
+        <v>4</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>6</v>
+      </c>
+      <c r="M1">
+        <v>7</v>
+      </c>
+      <c r="N1">
+        <v>8</v>
+      </c>
+      <c r="O1">
+        <v>9</v>
+      </c>
+      <c r="P1">
+        <v>10</v>
+      </c>
+      <c r="Q1">
+        <v>11</v>
+      </c>
+      <c r="R1">
+        <v>12</v>
+      </c>
+      <c r="S1">
+        <v>13</v>
+      </c>
+      <c r="T1">
+        <v>14</v>
+      </c>
+      <c r="U1">
+        <v>15</v>
+      </c>
+      <c r="V1">
+        <v>16</v>
+      </c>
+      <c r="W1">
+        <v>17</v>
+      </c>
+      <c r="X1">
+        <v>18</v>
+      </c>
+      <c r="Y1">
+        <v>19</v>
+      </c>
+      <c r="Z1">
+        <v>20</v>
+      </c>
+      <c r="AA1">
+        <v>21</v>
+      </c>
+      <c r="AB1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>270</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>-65.810500000000005</v>
+      </c>
+      <c r="G2">
+        <v>631.44000000000005</v>
+      </c>
+      <c r="H2">
+        <v>1345.76</v>
+      </c>
+      <c r="I2">
+        <v>2056.81</v>
+      </c>
+      <c r="J2">
+        <v>2766.77</v>
+      </c>
+      <c r="K2">
+        <v>3484.74</v>
+      </c>
+      <c r="L2">
+        <v>4203.99</v>
+      </c>
+      <c r="M2">
+        <v>4928.92</v>
+      </c>
+      <c r="N2">
+        <v>5654.82</v>
+      </c>
+      <c r="O2">
+        <v>6386.05</v>
+      </c>
+      <c r="P2">
+        <v>7119.08</v>
+      </c>
+      <c r="Q2">
+        <v>7866.35</v>
+      </c>
+      <c r="R2">
+        <v>8602.68</v>
+      </c>
+      <c r="S2">
+        <v>9340.11</v>
+      </c>
+      <c r="T2">
+        <v>10082.9</v>
+      </c>
+      <c r="U2">
+        <v>10816.2</v>
+      </c>
+      <c r="V2">
+        <v>11554.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f>AVERAGE(F3:AD3)</f>
+        <v>726.28190625000002</v>
+      </c>
+      <c r="F3">
+        <f>G2-F2</f>
+        <v>697.2505000000001</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:U3" si="0">H2-G2</f>
+        <v>714.31999999999994</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>711.05</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>709.96</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>717.9699999999998</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>719.25</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>724.93000000000029</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>725.89999999999964</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>731.23000000000047</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>733.02999999999975</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>747.27000000000044</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>736.32999999999993</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>737.43000000000029</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>742.78999999999905</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>733.30000000000109</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>738.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>270</v>
+      </c>
+      <c r="B5">
+        <v>23.6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>-15.2081</v>
+      </c>
+      <c r="G5">
+        <v>444.00099999999998</v>
+      </c>
+      <c r="H5">
+        <v>957.25800000000004</v>
+      </c>
+      <c r="I5">
+        <v>1469.86</v>
+      </c>
+      <c r="J5">
+        <v>1976.77</v>
+      </c>
+      <c r="K5">
+        <v>2488.64</v>
+      </c>
+      <c r="L5">
+        <v>2991.39</v>
+      </c>
+      <c r="M5">
+        <v>3495.75</v>
+      </c>
+      <c r="N5">
+        <v>4009.17</v>
+      </c>
+      <c r="O5">
+        <v>4515.07</v>
+      </c>
+      <c r="P5">
+        <v>5026</v>
+      </c>
+      <c r="Q5">
+        <v>5532.7</v>
+      </c>
+      <c r="R5">
+        <v>6046.02</v>
+      </c>
+      <c r="S5">
+        <v>6559.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f>AVERAGE(F6:AD6)</f>
+        <v>505.73754615384615</v>
+      </c>
+      <c r="F6">
+        <f>G5-F5</f>
+        <v>459.20909999999998</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:R6" si="1">H5-G5</f>
+        <v>513.25700000000006</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>512.60199999999986</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>506.91000000000008</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>511.86999999999989</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>502.75</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>504.36000000000013</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>513.42000000000007</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>505.89999999999964</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>510.93000000000029</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>506.69999999999982</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>513.32000000000062</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>513.35999999999967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>270</v>
+      </c>
+      <c r="B8">
+        <v>23.8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8">
+        <v>-26.3797</v>
+      </c>
+      <c r="G8">
+        <v>561.59900000000005</v>
+      </c>
+      <c r="H8">
+        <v>1162.3599999999999</v>
+      </c>
+      <c r="I8">
+        <v>1759.37</v>
+      </c>
+      <c r="J8">
+        <v>2360.37</v>
+      </c>
+      <c r="K8">
+        <v>2970.28</v>
+      </c>
+      <c r="L8">
+        <v>3580.45</v>
+      </c>
+      <c r="M8">
+        <v>4193.17</v>
+      </c>
+      <c r="N8">
+        <v>4812.3500000000004</v>
+      </c>
+      <c r="O8">
+        <v>5423.65</v>
+      </c>
+      <c r="P8">
+        <v>6041.51</v>
+      </c>
+      <c r="Q8">
+        <v>6662.9</v>
+      </c>
+      <c r="R8">
+        <v>7276.92</v>
+      </c>
+      <c r="S8">
+        <v>7888.52</v>
+      </c>
+      <c r="T8">
+        <v>8504.17</v>
+      </c>
+      <c r="U8">
+        <v>9118.6299999999992</v>
+      </c>
+      <c r="V8">
+        <v>9737.4599999999991</v>
+      </c>
+      <c r="W8">
+        <v>10363</v>
+      </c>
+      <c r="X8">
+        <v>10985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f>AVERAGE(F9:X9)</f>
+        <v>611.7433166666666</v>
+      </c>
+      <c r="F9">
+        <f>G8-F8</f>
+        <v>587.9787</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:W9" si="2">H8-G8</f>
+        <v>600.76099999999985</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>597.01</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>601</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>609.91000000000031</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>610.16999999999962</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>612.72000000000025</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>619.18000000000029</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>611.29999999999927</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>617.86000000000058</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>621.38999999999942</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>614.02000000000044</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>611.60000000000036</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>615.64999999999964</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>614.45999999999913</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>618.82999999999993</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>625.54000000000087</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <f>D3</f>
+        <v>726.28190625000002</v>
+      </c>
+      <c r="D15">
+        <v>270</v>
+      </c>
+      <c r="E15">
+        <f>12508/551.36</f>
+        <v>22.685722576900755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>23.6</v>
+      </c>
+      <c r="B16">
+        <f>D6</f>
+        <v>505.73754615384615</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>23.8</v>
+      </c>
+      <c r="B17">
+        <v>611.7433166666666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/KETEK/dV_dT.xlsx
+++ b/KETEK/dV_dT.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="1" r:id="rId1"/>
     <sheet name="263" sheetId="2" r:id="rId2"/>
     <sheet name="270" sheetId="3" r:id="rId3"/>
-    <sheet name="Лист1" sheetId="4" r:id="rId4"/>
+    <sheet name="280" sheetId="5" r:id="rId4"/>
+    <sheet name="285" sheetId="6" r:id="rId5"/>
+    <sheet name="vs" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="43">
   <si>
     <t>gate [ns]</t>
   </si>
@@ -108,6 +110,45 @@
   <si>
     <t>V_BD</t>
   </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>k3</t>
+  </si>
+  <si>
+    <t>l3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>d4</t>
+  </si>
+  <si>
+    <t>e4</t>
+  </si>
+  <si>
+    <t>f4</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>b5</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>d5</t>
+  </si>
 </sst>
 </file>
 
@@ -898,11 +939,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="78480128"/>
-        <c:axId val="74554368"/>
+        <c:axId val="30571520"/>
+        <c:axId val="30585600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78480128"/>
+        <c:axId val="30571520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -912,12 +953,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74554368"/>
+        <c:crossAx val="30585600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74554368"/>
+        <c:axId val="30585600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1050"/>
@@ -930,7 +971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78480128"/>
+        <c:crossAx val="30571520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1070,11 +1111,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="118416128"/>
-        <c:axId val="118227712"/>
+        <c:axId val="30503680"/>
+        <c:axId val="30505216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="118416128"/>
+        <c:axId val="30503680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,12 +1125,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118227712"/>
+        <c:crossAx val="30505216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118227712"/>
+        <c:axId val="30505216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,7 +1141,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118416128"/>
+        <c:crossAx val="30503680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1402,11 +1443,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="78607488"/>
-        <c:axId val="90561920"/>
+        <c:axId val="30891008"/>
+        <c:axId val="30892800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78607488"/>
+        <c:axId val="30891008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1416,12 +1457,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90561920"/>
+        <c:crossAx val="30892800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90561920"/>
+        <c:axId val="30892800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="800"/>
@@ -1434,7 +1475,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78607488"/>
+        <c:crossAx val="30891008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1500,17 +1541,26 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'270'!$A$15:$A$17</c:f>
+              <c:f>'270'!$A$23:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>23.6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>23.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -1518,17 +1568,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'270'!$B$15:$B$17</c:f>
+              <c:f>'270'!$B$23:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>1039.5733749999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>934.6212444444443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>822.06353333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>726.28190625000002</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>505.73754615384615</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>611.7433166666666</c:v>
                 </c:pt>
               </c:numCache>
@@ -1544,11 +1603,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99221888"/>
-        <c:axId val="99007104"/>
+        <c:axId val="30913664"/>
+        <c:axId val="30915200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99221888"/>
+        <c:axId val="30913664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,12 +1617,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99007104"/>
+        <c:crossAx val="30915200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99007104"/>
+        <c:axId val="30915200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1574,7 +1633,451 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99221888"/>
+        <c:crossAx val="30913664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.39009667541557308"/>
+                  <c:y val="2.826188393117527E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'280'!$A$21:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'280'!$B$21:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>684.97923333333313</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>751.18359230769238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>803.66593636363643</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>913.93554545454538</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1011.1535</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="72562176"/>
+        <c:axId val="72560640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="72562176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72560640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="72560640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72562176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.39129243219597548"/>
+                  <c:y val="-4.7462817147856518E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'285'!$A$20:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'285'!$B$20:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>669.96094285714287</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>785.97036363636369</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>893.47187500000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>996.73642857142852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="72931200"/>
+        <c:axId val="72929664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="72931200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72929664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="72929664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72931200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.40934645669291336"/>
+                  <c:y val="3.656240886555847E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>vs!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>vs!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>22.626169089730528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.651861283798969</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.716831536438068</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.7629571068743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="30858624"/>
+        <c:axId val="30864512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="30858624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="30864512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="30864512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="30858624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1667,13 +2170,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1697,13 +2200,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1718,6 +2221,111 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2013,10 +2621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:I13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2216,7 +2824,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>270</v>
+        <v>269.89999999999998</v>
       </c>
       <c r="C14">
         <v>270.2</v>
@@ -2230,7 +2838,10 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>270</v>
+        <v>269.89999999999998</v>
+      </c>
+      <c r="C15">
+        <v>270.2</v>
       </c>
       <c r="D15">
         <v>23.8</v>
@@ -2241,7 +2852,10 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>270</v>
+        <v>269.89999999999998</v>
+      </c>
+      <c r="C16">
+        <v>270.2</v>
       </c>
       <c r="D16">
         <v>23.6</v>
@@ -2285,10 +2899,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>270</v>
+        <v>269.89999999999998</v>
+      </c>
+      <c r="C20">
+        <v>270.2</v>
       </c>
       <c r="D20">
         <v>24.2</v>
@@ -2296,13 +2913,140 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>270</v>
+        <v>269.89999999999998</v>
+      </c>
+      <c r="C21">
+        <v>270.2</v>
       </c>
       <c r="D21">
         <v>24.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>269.89999999999998</v>
+      </c>
+      <c r="C22">
+        <v>270.2</v>
+      </c>
+      <c r="D22">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>280</v>
+      </c>
+      <c r="D24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>280</v>
+      </c>
+      <c r="D25">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>280</v>
+      </c>
+      <c r="D26">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>280</v>
+      </c>
+      <c r="D27">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>280</v>
+      </c>
+      <c r="D29">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>280</v>
+      </c>
+      <c r="D30">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32">
+        <v>285</v>
+      </c>
+      <c r="D32">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>285</v>
+      </c>
+      <c r="D33">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>285</v>
+      </c>
+      <c r="D34">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>285</v>
+      </c>
+      <c r="D35">
+        <v>24.6</v>
       </c>
     </row>
   </sheetData>
@@ -2314,8 +3058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB41"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3528,10 +4272,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4008,50 +4752,319 @@
         <v>622</v>
       </c>
     </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>270</v>
+      </c>
+      <c r="B11">
+        <v>24.2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>-71.041799999999995</v>
+      </c>
+      <c r="G11">
+        <v>723.97900000000004</v>
+      </c>
+      <c r="H11">
+        <v>1537.55</v>
+      </c>
+      <c r="I11">
+        <v>2360.36</v>
+      </c>
+      <c r="J11">
+        <v>3181.8</v>
+      </c>
+      <c r="K11">
+        <v>4011.08</v>
+      </c>
+      <c r="L11">
+        <v>4839.6099999999997</v>
+      </c>
+      <c r="M11">
+        <v>5669.55</v>
+      </c>
+      <c r="N11">
+        <v>6505.28</v>
+      </c>
+      <c r="O11">
+        <v>7327.53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>AVERAGE(F12:X12)</f>
+        <v>822.06353333333334</v>
+      </c>
+      <c r="F12">
+        <f>G11-F11</f>
+        <v>795.02080000000001</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:N12" si="3">H11-G11</f>
+        <v>813.57099999999991</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>822.81000000000017</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>821.44</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>829.27999999999975</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>828.52999999999975</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>829.94000000000051</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>835.72999999999956</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>822.25</v>
+      </c>
+    </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14">
+        <v>270</v>
+      </c>
+      <c r="B14">
+        <v>24.4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14">
+        <v>-83.111199999999997</v>
+      </c>
+      <c r="G14">
+        <v>822.279</v>
+      </c>
+      <c r="H14">
+        <v>1749.21</v>
+      </c>
+      <c r="I14">
+        <v>2674.3</v>
+      </c>
+      <c r="J14">
+        <v>3610.05</v>
+      </c>
+      <c r="K14">
+        <v>4545.99</v>
+      </c>
+      <c r="L14">
+        <v>5484.09</v>
+      </c>
+      <c r="M14">
+        <v>6429.05</v>
+      </c>
+      <c r="N14">
+        <v>7378.37</v>
+      </c>
+      <c r="O14">
+        <v>8328.48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>AVERAGE(F15:X15)</f>
+        <v>934.6212444444443</v>
+      </c>
+      <c r="F15">
+        <f>G14-F14</f>
+        <v>905.39020000000005</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:N15" si="4">H14-G14</f>
+        <v>926.93100000000004</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>925.09000000000015</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>935.75</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>935.9399999999996</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>938.10000000000036</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>944.96</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>949.31999999999971</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>950.10999999999967</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>270</v>
+      </c>
+      <c r="B17">
+        <v>24.6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17">
+        <v>-106.437</v>
+      </c>
+      <c r="G17">
+        <v>902.18700000000001</v>
+      </c>
+      <c r="H17">
+        <v>1936.19</v>
+      </c>
+      <c r="I17">
+        <v>2976.54</v>
+      </c>
+      <c r="J17">
+        <v>4015.69</v>
+      </c>
+      <c r="K17">
+        <v>5062.07</v>
+      </c>
+      <c r="L17">
+        <v>6109.7</v>
+      </c>
+      <c r="M17">
+        <v>7161.94</v>
+      </c>
+      <c r="N17">
+        <v>8210.15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f>AVERAGE(F18:X18)</f>
+        <v>1039.5733749999999</v>
+      </c>
+      <c r="F18">
+        <f>G17-F17</f>
+        <v>1008.624</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:M18" si="5">H17-G17</f>
+        <v>1034.0030000000002</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>1040.3499999999999</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="5"/>
+        <v>1039.1500000000001</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>1046.3799999999997</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>1047.6300000000001</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>1052.2399999999998</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>1048.21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B22" t="s">
         <v>28</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D22" t="s">
         <v>18</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>24.6</v>
+      </c>
+      <c r="B23">
+        <f>D18</f>
+        <v>1039.5733749999999</v>
+      </c>
+      <c r="D23">
+        <v>270</v>
+      </c>
+      <c r="E23">
+        <f>12097/534.04</f>
+        <v>22.651861283798969</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24.4</v>
+      </c>
+      <c r="B24">
+        <f>D15</f>
+        <v>934.6212444444443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24.2</v>
+      </c>
+      <c r="B25">
+        <f>D12</f>
+        <v>822.06353333333334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="B15">
+      <c r="B26">
         <f>D3</f>
         <v>726.28190625000002</v>
       </c>
-      <c r="D15">
-        <v>270</v>
-      </c>
-      <c r="E15">
-        <f>12508/551.36</f>
-        <v>22.685722576900755</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>23.6</v>
       </c>
-      <c r="B16">
+      <c r="B27">
         <f>D6</f>
         <v>505.73754615384615</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>23.8</v>
       </c>
-      <c r="B17">
+      <c r="B28">
         <v>611.7433166666666</v>
       </c>
     </row>
@@ -4063,14 +5076,1087 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <v>3</v>
+      </c>
+      <c r="J1">
+        <v>4</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>6</v>
+      </c>
+      <c r="M1">
+        <v>7</v>
+      </c>
+      <c r="N1">
+        <v>8</v>
+      </c>
+      <c r="O1">
+        <v>9</v>
+      </c>
+      <c r="P1">
+        <v>10</v>
+      </c>
+      <c r="Q1">
+        <v>11</v>
+      </c>
+      <c r="R1">
+        <v>12</v>
+      </c>
+      <c r="S1">
+        <v>13</v>
+      </c>
+      <c r="T1">
+        <v>14</v>
+      </c>
+      <c r="U1">
+        <v>15</v>
+      </c>
+      <c r="V1">
+        <v>16</v>
+      </c>
+      <c r="W1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>280</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2">
+        <v>-60.945399999999999</v>
+      </c>
+      <c r="G2">
+        <v>597.28700000000003</v>
+      </c>
+      <c r="H2">
+        <v>1282.45</v>
+      </c>
+      <c r="I2">
+        <v>1968.3</v>
+      </c>
+      <c r="J2">
+        <v>2658.76</v>
+      </c>
+      <c r="K2">
+        <v>3352.97</v>
+      </c>
+      <c r="L2">
+        <v>4048.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f>AVERAGE(F3:AD3)</f>
+        <v>684.97923333333313</v>
+      </c>
+      <c r="F3">
+        <f>G2-F2</f>
+        <v>658.23239999999998</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:K3" si="0">H2-G2</f>
+        <v>685.16300000000001</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>685.84999999999991</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>690.46000000000026</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>694.20999999999958</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>695.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>280</v>
+      </c>
+      <c r="B5">
+        <v>24.2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>-97.655299999999997</v>
+      </c>
+      <c r="G5">
+        <v>673.70500000000004</v>
+      </c>
+      <c r="H5">
+        <v>1450.39</v>
+      </c>
+      <c r="I5">
+        <v>2244.83</v>
+      </c>
+      <c r="J5">
+        <v>3053.54</v>
+      </c>
+      <c r="K5">
+        <v>3872.1</v>
+      </c>
+      <c r="L5">
+        <v>4683.46</v>
+      </c>
+      <c r="M5">
+        <v>5496.51</v>
+      </c>
+      <c r="N5">
+        <v>6303.53</v>
+      </c>
+      <c r="O5">
+        <v>7120.71</v>
+      </c>
+      <c r="P5">
+        <v>7924.78</v>
+      </c>
+      <c r="Q5">
+        <v>8742.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f>AVERAGE(F6:AD6)</f>
+        <v>803.66593636363643</v>
+      </c>
+      <c r="F6">
+        <f>G5-F5</f>
+        <v>771.36030000000005</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:P6" si="1">H5-G5</f>
+        <v>776.68500000000006</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>794.43999999999983</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>808.71</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>818.56</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>811.36000000000013</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>813.05000000000018</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>807.01999999999953</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>817.18000000000029</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>804.06999999999971</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>817.89000000000033</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>280</v>
+      </c>
+      <c r="B8">
+        <v>24.4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <v>-133.39099999999999</v>
+      </c>
+      <c r="G8">
+        <v>743.03599999999994</v>
+      </c>
+      <c r="H8">
+        <v>1631.6</v>
+      </c>
+      <c r="I8">
+        <v>2518.33</v>
+      </c>
+      <c r="J8">
+        <v>3446.53</v>
+      </c>
+      <c r="K8">
+        <v>4374.17</v>
+      </c>
+      <c r="L8">
+        <v>5307.83</v>
+      </c>
+      <c r="M8">
+        <v>6223.84</v>
+      </c>
+      <c r="N8">
+        <v>7148.05</v>
+      </c>
+      <c r="O8">
+        <v>8075.23</v>
+      </c>
+      <c r="P8">
+        <v>8982.58</v>
+      </c>
+      <c r="Q8">
+        <v>9919.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f>AVERAGE(F9:AD9)</f>
+        <v>913.93554545454538</v>
+      </c>
+      <c r="F9">
+        <f>G8-F8</f>
+        <v>876.42699999999991</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:P9" si="2">H8-G8</f>
+        <v>888.56399999999996</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>886.73</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>928.20000000000027</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>927.63999999999987</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>933.65999999999985</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>916.01000000000022</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>924.21</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>927.17999999999938</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>907.35000000000036</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>937.31999999999971</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>280</v>
+      </c>
+      <c r="B11">
+        <v>24.6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11">
+        <v>-176.291</v>
+      </c>
+      <c r="G11">
+        <v>817.32399999999996</v>
+      </c>
+      <c r="H11">
+        <v>1830.33</v>
+      </c>
+      <c r="I11">
+        <v>2831.59</v>
+      </c>
+      <c r="J11">
+        <v>3854.36</v>
+      </c>
+      <c r="K11">
+        <v>4875.09</v>
+      </c>
+      <c r="L11">
+        <v>5890.63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>AVERAGE(F12:AD12)</f>
+        <v>1011.1535</v>
+      </c>
+      <c r="F12">
+        <f>G11-F11</f>
+        <v>993.61500000000001</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:K12" si="3">H11-G11</f>
+        <v>1013.006</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>1001.2600000000002</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>1022.77</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>1020.73</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>1015.54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>280</v>
+      </c>
+      <c r="B14">
+        <v>24.1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(F15:AD15)</f>
+        <v>751.18359230769238</v>
+      </c>
+      <c r="F14">
+        <v>-86.2667</v>
+      </c>
+      <c r="G14">
+        <v>634.98400000000004</v>
+      </c>
+      <c r="H14">
+        <v>1367.14</v>
+      </c>
+      <c r="I14">
+        <v>2105.09</v>
+      </c>
+      <c r="J14">
+        <v>2846.12</v>
+      </c>
+      <c r="K14">
+        <v>3598.05</v>
+      </c>
+      <c r="L14">
+        <v>4363.28</v>
+      </c>
+      <c r="M14">
+        <v>5124.53</v>
+      </c>
+      <c r="N14">
+        <v>5885.86</v>
+      </c>
+      <c r="O14">
+        <v>6644.85</v>
+      </c>
+      <c r="P14">
+        <v>7405.49</v>
+      </c>
+      <c r="Q14">
+        <v>8163.19</v>
+      </c>
+      <c r="R14">
+        <v>8914.59</v>
+      </c>
+      <c r="S14">
+        <v>9679.1200000000008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f>G14-F14</f>
+        <v>721.25070000000005</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:R15" si="4">H14-G14</f>
+        <v>732.15600000000006</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>737.95</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>741.02999999999975</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>751.93000000000029</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>765.22999999999956</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>761.25</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>761.32999999999993</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>758.99000000000069</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>760.63999999999942</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>757.69999999999982</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>751.40000000000055</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="4"/>
+        <v>764.53000000000065</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <f>D3</f>
+        <v>684.97923333333313</v>
+      </c>
+      <c r="D21">
+        <v>280</v>
+      </c>
+      <c r="E21">
+        <f>12263/539.82</f>
+        <v>22.716831536438068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>24.1</v>
+      </c>
+      <c r="B22">
+        <f>D14</f>
+        <v>751.18359230769238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>24.2</v>
+      </c>
+      <c r="B23">
+        <f>D6</f>
+        <v>803.66593636363643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24.4</v>
+      </c>
+      <c r="B24">
+        <f>D9</f>
+        <v>913.93554545454538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24.6</v>
+      </c>
+      <c r="B25">
+        <f>D12</f>
+        <v>1011.1535</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <v>3</v>
+      </c>
+      <c r="J1">
+        <v>4</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>6</v>
+      </c>
+      <c r="M1">
+        <v>7</v>
+      </c>
+      <c r="N1">
+        <v>8</v>
+      </c>
+      <c r="O1">
+        <v>9</v>
+      </c>
+      <c r="P1">
+        <v>10</v>
+      </c>
+      <c r="Q1">
+        <v>11</v>
+      </c>
+      <c r="R1">
+        <v>12</v>
+      </c>
+      <c r="S1">
+        <v>13</v>
+      </c>
+      <c r="T1">
+        <v>14</v>
+      </c>
+      <c r="U1">
+        <v>15</v>
+      </c>
+      <c r="V1">
+        <v>16</v>
+      </c>
+      <c r="W1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>285</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2">
+        <v>-87.846599999999995</v>
+      </c>
+      <c r="G2">
+        <v>552.29200000000003</v>
+      </c>
+      <c r="H2">
+        <v>1222.01</v>
+      </c>
+      <c r="I2">
+        <v>1890.38</v>
+      </c>
+      <c r="J2">
+        <v>2560.5300000000002</v>
+      </c>
+      <c r="K2">
+        <v>3236.19</v>
+      </c>
+      <c r="L2">
+        <v>3918.29</v>
+      </c>
+      <c r="M2">
+        <v>4601.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f>AVERAGE(F3:AD3)</f>
+        <v>669.96094285714287</v>
+      </c>
+      <c r="F3">
+        <f>G2-F2</f>
+        <v>640.1386</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:L3" si="0">H2-G2</f>
+        <v>669.71799999999996</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>668.37000000000012</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>670.15000000000009</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>675.65999999999985</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>682.09999999999991</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>683.59000000000015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>285</v>
+      </c>
+      <c r="B5">
+        <v>24.2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>-120.804</v>
+      </c>
+      <c r="G5">
+        <v>623.34500000000003</v>
+      </c>
+      <c r="H5">
+        <v>1391.31</v>
+      </c>
+      <c r="I5">
+        <v>2179.25</v>
+      </c>
+      <c r="J5">
+        <v>2975.92</v>
+      </c>
+      <c r="K5">
+        <v>3773.78</v>
+      </c>
+      <c r="L5">
+        <v>4565.03</v>
+      </c>
+      <c r="M5">
+        <v>5354.96</v>
+      </c>
+      <c r="N5">
+        <v>6152.04</v>
+      </c>
+      <c r="O5">
+        <v>6946.61</v>
+      </c>
+      <c r="P5">
+        <v>7748.2</v>
+      </c>
+      <c r="Q5">
+        <v>8524.8700000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f>AVERAGE(F6:AD6)</f>
+        <v>785.97036363636369</v>
+      </c>
+      <c r="F6">
+        <f>G5-F5</f>
+        <v>744.149</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:P6" si="1">H5-G5</f>
+        <v>767.96499999999992</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>787.94</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>796.67000000000007</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>797.86000000000013</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>791.24999999999955</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>789.93000000000029</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>797.07999999999993</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>794.56999999999971</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>801.59000000000015</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>776.67000000000098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>285</v>
+      </c>
+      <c r="B8">
+        <v>24.4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8">
+        <v>-173.27500000000001</v>
+      </c>
+      <c r="G8">
+        <v>686.5</v>
+      </c>
+      <c r="H8">
+        <v>1572.55</v>
+      </c>
+      <c r="I8">
+        <v>2468.8200000000002</v>
+      </c>
+      <c r="J8">
+        <v>3373.05</v>
+      </c>
+      <c r="K8">
+        <v>4252.6899999999996</v>
+      </c>
+      <c r="L8">
+        <v>5151.55</v>
+      </c>
+      <c r="M8">
+        <v>6064.44</v>
+      </c>
+      <c r="N8">
+        <v>6974.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f>AVERAGE(F9:AD9)</f>
+        <v>893.47187500000007</v>
+      </c>
+      <c r="F9">
+        <f>G8-F8</f>
+        <v>859.77499999999998</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:J9" si="2">H8-G8</f>
+        <v>886.05</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>896.27000000000021</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>904.23</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>879.63999999999942</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9" si="3">L8-K8</f>
+        <v>898.86000000000058</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:M9" si="4">M8-L8</f>
+        <v>912.88999999999942</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>910.0600000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>285</v>
+      </c>
+      <c r="B11">
+        <v>24.6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11">
+        <v>-220.465</v>
+      </c>
+      <c r="G11">
+        <v>740.84400000000005</v>
+      </c>
+      <c r="H11">
+        <v>1738.35</v>
+      </c>
+      <c r="I11">
+        <v>2751.57</v>
+      </c>
+      <c r="J11">
+        <v>3759.17</v>
+      </c>
+      <c r="K11">
+        <v>4754.1000000000004</v>
+      </c>
+      <c r="L11">
+        <v>5760.04</v>
+      </c>
+      <c r="M11">
+        <v>6756.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>AVERAGE(F12:AD12)</f>
+        <v>996.73642857142852</v>
+      </c>
+      <c r="F12">
+        <f>G11-F11</f>
+        <v>961.30900000000008</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:L12" si="5">H11-G11</f>
+        <v>997.50599999999986</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>1013.2200000000003</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="5"/>
+        <v>1007.5999999999999</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>994.93000000000029</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>1005.9399999999996</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>996.64999999999964</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <f>D3</f>
+        <v>669.96094285714287</v>
+      </c>
+      <c r="D20">
+        <v>285</v>
+      </c>
+      <c r="E20">
+        <f>12381/543.91</f>
+        <v>22.7629571068743</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>24.2</v>
+      </c>
+      <c r="B21">
+        <f>D6</f>
+        <v>785.97036363636369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>24.4</v>
+      </c>
+      <c r="B22">
+        <f>D9</f>
+        <v>893.47187500000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>24.6</v>
+      </c>
+      <c r="B23">
+        <f>D12</f>
+        <v>996.73642857142852</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>263</v>
+      </c>
+      <c r="B2" s="1">
+        <v>22.626169089730528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>270</v>
+      </c>
+      <c r="B3">
+        <v>22.651861283798969</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>280</v>
+      </c>
+      <c r="B4">
+        <v>22.716831536438068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>285</v>
+      </c>
+      <c r="B5">
+        <v>22.7629571068743</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/KETEK/dV_dT.xlsx
+++ b/KETEK/dV_dT.xlsx
@@ -939,11 +939,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="30571520"/>
-        <c:axId val="30585600"/>
+        <c:axId val="76389376"/>
+        <c:axId val="76399360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="30571520"/>
+        <c:axId val="76389376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -953,12 +953,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30585600"/>
+        <c:crossAx val="76399360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="30585600"/>
+        <c:axId val="76399360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1050"/>
@@ -971,7 +971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30571520"/>
+        <c:crossAx val="76389376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1111,11 +1111,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="30503680"/>
-        <c:axId val="30505216"/>
+        <c:axId val="76571392"/>
+        <c:axId val="76572928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="30503680"/>
+        <c:axId val="76571392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,12 +1125,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30505216"/>
+        <c:crossAx val="76572928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="30505216"/>
+        <c:axId val="76572928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1141,7 +1141,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30503680"/>
+        <c:crossAx val="76571392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1443,11 +1443,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="30891008"/>
-        <c:axId val="30892800"/>
+        <c:axId val="76508160"/>
+        <c:axId val="76509952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="30891008"/>
+        <c:axId val="76508160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,12 +1457,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30892800"/>
+        <c:crossAx val="76509952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="30892800"/>
+        <c:axId val="76509952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="800"/>
@@ -1475,7 +1475,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30891008"/>
+        <c:crossAx val="76508160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1603,11 +1603,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="30913664"/>
-        <c:axId val="30915200"/>
+        <c:axId val="76530816"/>
+        <c:axId val="76532352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="30913664"/>
+        <c:axId val="76530816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1617,12 +1617,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30915200"/>
+        <c:crossAx val="76532352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="30915200"/>
+        <c:axId val="76532352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1633,7 +1633,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30913664"/>
+        <c:crossAx val="76530816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1755,11 +1755,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="72562176"/>
-        <c:axId val="72560640"/>
+        <c:axId val="76915840"/>
+        <c:axId val="76917376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72562176"/>
+        <c:axId val="76915840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1769,12 +1769,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72560640"/>
+        <c:crossAx val="76917376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72560640"/>
+        <c:axId val="76917376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1785,7 +1785,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72562176"/>
+        <c:crossAx val="76915840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1901,11 +1901,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="72931200"/>
-        <c:axId val="72929664"/>
+        <c:axId val="77901184"/>
+        <c:axId val="77907072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72931200"/>
+        <c:axId val="77901184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1915,12 +1915,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72929664"/>
+        <c:crossAx val="77907072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72929664"/>
+        <c:axId val="77907072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,7 +1931,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72931200"/>
+        <c:crossAx val="77901184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2047,11 +2047,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="30858624"/>
-        <c:axId val="30864512"/>
+        <c:axId val="77930880"/>
+        <c:axId val="77932416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="30858624"/>
+        <c:axId val="77930880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,12 +2061,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30864512"/>
+        <c:crossAx val="77932416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="30864512"/>
+        <c:axId val="77932416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2077,7 +2077,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30858624"/>
+        <c:crossAx val="77930880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6110,7 +6110,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
